--- a/fuzzy_duplicates.xlsx
+++ b/fuzzy_duplicates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,22 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>File1Path</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>File2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>File2Path</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>ContentMatch</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>File1Name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>File2Name</t>
         </is>
       </c>
     </row>
@@ -468,21 +468,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fio9.sh</t>
-        </is>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fio5.sh</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>fio9.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio5.sh</t>
+        </is>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -493,21 +493,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>fio2.sh</t>
-        </is>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>fio18.sh</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>fio2.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio18.sh</t>
+        </is>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -518,21 +518,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>fio7.sh</t>
         </is>
       </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>fio7.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio7.sh</t>
+        </is>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -543,21 +543,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>fio6.sh</t>
-        </is>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>fio3.sh</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>fio6.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio3.sh</t>
+        </is>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -568,21 +568,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>fio4.sh</t>
-        </is>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>fio12.sh</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>fio4.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio12.sh</t>
+        </is>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -593,21 +593,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>fio8.sh</t>
-        </is>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>fio6.sh</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>fio8.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio6.sh</t>
+        </is>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -618,21 +618,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>fio5.sh</t>
-        </is>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>fio4.sh</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>fio5.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio4.sh</t>
+        </is>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -643,1446 +643,3321 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>fio3.sh</t>
-        </is>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fio11.sh</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>fio3.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio11.sh</t>
+        </is>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>fio1.sh</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>fio14.sh</t>
-        </is>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>fio3.sh</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>fio14.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio3.sh</t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>fio10.sh</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>fio18.sh</t>
-        </is>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>fio18.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio10.sh</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>fio1.sh</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>fio15.sh</t>
         </is>
       </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>fio15.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio15.sh</t>
+        </is>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>fio1.sh</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>fio19.sh</t>
-        </is>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>fio8.sh</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>fio19.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio8.sh</t>
+        </is>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>fio1.sh</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>fio11.sh</t>
-        </is>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>fio5.sh</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>fio11.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio5.sh</t>
+        </is>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>fio1.sh</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
-        </is>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>fio16.sh</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>fio12.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio16.sh</t>
+        </is>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>fio1.sh</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
-        </is>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>fio13.sh</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>fio20.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio13.sh</t>
+        </is>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>fio1.sh</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>fio16.sh</t>
-        </is>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>fio17.sh</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>fio16.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio17.sh</t>
+        </is>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>fio1.sh</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
-        </is>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>fio2.sh</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>fio21.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio2.sh</t>
+        </is>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>fio1.sh</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>fio17.sh</t>
-        </is>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>fio14.sh</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>fio17.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio14.sh</t>
+        </is>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>fio1.sh</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>fio13.sh</t>
-        </is>
-      </c>
-      <c r="C20" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>fio6.sh</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>fio13.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio6.sh</t>
+        </is>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>fio22.sh</t>
+          <t>fio1.sh</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>fio23.sh</t>
-        </is>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>fio19.sh</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>fio22.sh</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>fio23.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio19.sh</t>
+        </is>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>fio22.sh</t>
+          <t>fio1.sh</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>fio24.sh</t>
-        </is>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>fio9.sh</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>fio22.sh</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>fio24.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio9.sh</t>
+        </is>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>fio22.sh</t>
+          <t>fio1.sh</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
-        </is>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>fio4.sh</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>fio22.sh</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>fio12.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio4.sh</t>
+        </is>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>fio22.sh</t>
+          <t>fio1.sh</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
-        </is>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>fio9.sh</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>fio22.sh</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>fio20.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio9.sh</t>
+        </is>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>fio22.sh</t>
+          <t>fio1.sh</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
-        </is>
-      </c>
-      <c r="C25" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>fio7.sh</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>fio22.sh</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>fio21.sh</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio7.sh</t>
+        </is>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio1.sh</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>run20.txt</t>
-        </is>
-      </c>
-      <c r="C26" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>fio8.sh</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>run20.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio8.sh</t>
+        </is>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio1.sh</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>run11.txt</t>
-        </is>
-      </c>
-      <c r="C27" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>fio21.sh</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>run11.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio21.sh</t>
+        </is>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio1.sh</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>run22.txt</t>
-        </is>
-      </c>
-      <c r="C28" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>fio2.sh</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>run22.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio2.sh</t>
+        </is>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>run15.txt</t>
-        </is>
-      </c>
-      <c r="C29" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>fio17.sh</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>run15.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio17.sh</t>
+        </is>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>run16.txt</t>
-        </is>
-      </c>
-      <c r="C30" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>fio18.sh</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>run16.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio18.sh</t>
+        </is>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>run2.txt</t>
-        </is>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>run2.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio20.sh</t>
+        </is>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>run4.txt</t>
-        </is>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>fio21.sh</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>run4.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio21.sh</t>
+        </is>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>run7.txt</t>
-        </is>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>fio13.sh</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>run7.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio13.sh</t>
+        </is>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>run6.txt</t>
-        </is>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>fio17.sh</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>run6.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio17.sh</t>
+        </is>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>run9.txt</t>
-        </is>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>fio12.sh</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>run9.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio12.sh</t>
+        </is>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>run8.txt</t>
-        </is>
-      </c>
-      <c r="C36" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>fio15.sh</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>run8.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio15.sh</t>
+        </is>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>run19.txt</t>
-        </is>
-      </c>
-      <c r="C37" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>fio18.sh</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>run19.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio18.sh</t>
+        </is>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>run18.txt</t>
-        </is>
-      </c>
-      <c r="C38" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>fio15.sh</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>run18.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio15.sh</t>
+        </is>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>run21.txt</t>
-        </is>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>fio13.sh</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>run21.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio13.sh</t>
+        </is>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>run13.txt</t>
-        </is>
-      </c>
-      <c r="C40" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>fio12.sh</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>run13.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio12.sh</t>
+        </is>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>run3.txt</t>
-        </is>
-      </c>
-      <c r="C41" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>fio19.sh</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>run3.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio19.sh</t>
+        </is>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>run17.txt</t>
-        </is>
-      </c>
-      <c r="C42" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>fio11.sh</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>run17.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio11.sh</t>
+        </is>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>run10.txt</t>
-        </is>
-      </c>
-      <c r="C43" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>fio19.sh</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>run10.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio19.sh</t>
+        </is>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>run14.txt</t>
-        </is>
-      </c>
-      <c r="C44" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>fio16.sh</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>run14.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio16.sh</t>
+        </is>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>run12.txt</t>
-        </is>
-      </c>
-      <c r="C45" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>run12.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio20.sh</t>
+        </is>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>run5.txt</t>
-        </is>
-      </c>
-      <c r="C46" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>fio21.sh</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>run5.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio21.sh</t>
+        </is>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>run23.txt</t>
-        </is>
-      </c>
-      <c r="C47" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>fio14.sh</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>run23.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio14.sh</t>
+        </is>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>run24.txt</t>
-        </is>
-      </c>
-      <c r="C48" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>fio16.sh</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>run24.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio16.sh</t>
+        </is>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>device.ios1</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>device.ios2</t>
-        </is>
-      </c>
-      <c r="C49" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>fio14.sh</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>device.ios1</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>device.ios2</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio14.sh</t>
+        </is>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>device.ios1</t>
+          <t>fio10.sh</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>device.ios3</t>
-        </is>
-      </c>
-      <c r="C50" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>fio11.sh</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>device.ios1</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>device.ios3</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio11.sh</t>
+        </is>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>device.ios1</t>
+          <t>fio22.sh</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>device.ios4</t>
-        </is>
-      </c>
-      <c r="C51" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>device.ios1</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>device.ios4</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio20.sh</t>
+        </is>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>xdd-7k-BS4-QD8-TG1-512_flash-log01</t>
+          <t>fio22.sh</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>xdd-7k-BS512K-QD16-TG1-512_flash-log09-k</t>
-        </is>
-      </c>
-      <c r="C52" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>fio24.sh</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>xdd-7k-BS4-QD8-TG1-512_flash-log01</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>xdd-7k-BS512K-QD16-TG1-512_flash-log09-k</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio24.sh</t>
+        </is>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>devlist.c0-vm1</t>
+          <t>fio22.sh</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>devlist.c1-vm1</t>
-        </is>
-      </c>
-      <c r="C53" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>fio21.sh</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>devlist.c0-vm1</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>devlist.c1-vm1</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio21.sh</t>
+        </is>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>devlist.vm1</t>
+          <t>fio22.sh</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>devlist.vm3</t>
-        </is>
-      </c>
-      <c r="C54" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>devlist.vm1</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>devlist.vm3</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio20.sh</t>
+        </is>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>devlist.vm3_4kall</t>
+          <t>fio22.sh</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>devlist.vm4_4kall</t>
-        </is>
-      </c>
-      <c r="C55" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>fio23.sh</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>devlist.vm3_4kall</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>devlist.vm4_4kall</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio23.sh</t>
+        </is>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>devlist.vm3_4kall</t>
+          <t>fio22.sh</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>devlist.vm3_4kall.bkp</t>
-        </is>
-      </c>
-      <c r="C56" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>fio21.sh</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>devlist.vm3_4kall</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>devlist.vm3_4kall.bkp</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio21.sh</t>
+        </is>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>devlist.vm3_4kall</t>
+          <t>fio22.sh</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>devlist.vm4_4kall.bkp</t>
-        </is>
-      </c>
-      <c r="C57" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>fio23.sh</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>devlist.vm3_4kall</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>devlist.vm4_4kall.bkp</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio23.sh</t>
+        </is>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>devlist.vm3_4kallnew</t>
+          <t>fio22.sh</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>devlist.vm4_4kallnew</t>
-        </is>
-      </c>
-      <c r="C58" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>fio12.sh</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>devlist.vm3_4kallnew</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>devlist.vm4_4kallnew</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio12.sh</t>
+        </is>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>xdd-7ke-BS4-QD16-TG0-512.log</t>
+          <t>fio22.sh</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>xdd-7ke-BS8-QD16-TG0-512.log</t>
-        </is>
-      </c>
-      <c r="C59" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>fio12.sh</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>xdd-7ke-BS4-QD16-TG0-512.log</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>xdd-7ke-BS8-QD16-TG0-512.log</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio12.sh</t>
+        </is>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3.207-CVE_to_be_installed.txt</t>
+          <t>fio22.sh</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3.208-CVE_to_be_installed.txt</t>
-        </is>
-      </c>
-      <c r="C60" t="b">
-        <v>1</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>fio24.sh</t>
+        </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3.207-CVE_to_be_installed.txt</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>3.208-CVE_to_be_installed.txt</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio24.sh</t>
+        </is>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>KKD geo tagging (1).xlsx</t>
+          <t>run1.txt</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KKD geo tagging (2).xlsx</t>
-        </is>
-      </c>
-      <c r="C61" t="b">
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>run23.txt</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run23.txt</t>
+        </is>
+      </c>
+      <c r="E61" t="b">
         <v>1</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>KKD geo tagging (1).xlsx</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>KKD geo tagging (2).xlsx</t>
-        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>KKD geo tagging (1).xlsx</t>
+          <t>run1.txt</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>KKD geo tagging (3).xlsx</t>
-        </is>
-      </c>
-      <c r="C62" t="b">
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>run22.txt</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run22.txt</t>
+        </is>
+      </c>
+      <c r="E62" t="b">
         <v>1</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>KKD geo tagging (1).xlsx</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>KKD geo tagging (3).xlsx</t>
-        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>KKD geo tagging (1).xlsx</t>
+          <t>run1.txt</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>KKD geo tagging.xlsx</t>
-        </is>
-      </c>
-      <c r="C63" t="b">
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>run9.txt</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run9.txt</t>
+        </is>
+      </c>
+      <c r="E63" t="b">
         <v>1</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>KKD geo tagging (1).xlsx</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>KKD geo tagging.xlsx</t>
-        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>LS____.pdf</t>
+          <t>run1.txt</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LS____ (1).pdf</t>
-        </is>
-      </c>
-      <c r="C64" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>run15.txt</t>
+        </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LS____.pdf</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>LS____ (1).pdf</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run15.txt</t>
+        </is>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>LS____.pdf</t>
+          <t>run1.txt</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>LS____ (2).pdf</t>
-        </is>
-      </c>
-      <c r="C65" t="b">
-        <v>0</v>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>run11.txt</t>
+        </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LS____.pdf</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>LS____ (2).pdf</t>
-        </is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run11.txt</t>
+        </is>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>run21.txt</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run21.txt</t>
+        </is>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>run7.txt</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run7.txt</t>
+        </is>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>run18.txt</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run18.txt</t>
+        </is>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>run5.txt</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run5.txt</t>
+        </is>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run2.txt</t>
+        </is>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>run24.txt</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run24.txt</t>
+        </is>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>run6.txt</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run6.txt</t>
+        </is>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>run17.txt</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run17.txt</t>
+        </is>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>run10.txt</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run10.txt</t>
+        </is>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>run8.txt</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run8.txt</t>
+        </is>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>run20.txt</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run20.txt</t>
+        </is>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>run13.txt</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run13.txt</t>
+        </is>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>run19.txt</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run19.txt</t>
+        </is>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>run16.txt</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run16.txt</t>
+        </is>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>run12.txt</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run12.txt</t>
+        </is>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>run4.txt</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run4.txt</t>
+        </is>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>run3.txt</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run3.txt</t>
+        </is>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>run14.txt</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run14.txt</t>
+        </is>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>run4.txt</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\run4.txt</t>
+        </is>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\run2.txt</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>run3.txt</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\run3.txt</t>
+        </is>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>fio3.sh</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio3.sh</t>
+        </is>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>fio8.sh</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio8.sh</t>
+        </is>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>fio6.sh</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio6.sh</t>
+        </is>
+      </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>fio4.sh</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio4.sh</t>
+        </is>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>fio5.sh</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio5.sh</t>
+        </is>
+      </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>fio7.sh</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio7.sh</t>
+        </is>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>fio9.sh</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio9.sh</t>
+        </is>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio1.sh</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>fio2.sh</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio2.sh</t>
+        </is>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio20.sh</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>fio24.sh</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio24.sh</t>
+        </is>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio20.sh</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>fio22.sh</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio22.sh</t>
+        </is>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio20.sh</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>fio2.sh</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio2.sh</t>
+        </is>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio20.sh</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>fio21.sh</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio21.sh</t>
+        </is>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio20.sh</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>fio23.sh</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio23.sh</t>
+        </is>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio20.sh</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>fio12.sh</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio12.sh</t>
+        </is>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio20.sh</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio10.sh</t>
+        </is>
+      </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio20.sh</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>fio2.sh</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio2.sh</t>
+        </is>
+      </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run1log\run2.txt</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>run4.txt</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run1log\run4.txt</t>
+        </is>
+      </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run1log\run2.txt</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>run3.txt</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run1log\run3.txt</t>
+        </is>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run1.txt</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>run6.txt</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run6.txt</t>
+        </is>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run1.txt</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>run3.txt</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run3.txt</t>
+        </is>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run1.txt</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>run4.txt</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run4.txt</t>
+        </is>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run1.txt</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>run7.txt</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run7.txt</t>
+        </is>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>run3.txt</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run3.txt</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run1.txt</t>
+        </is>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>run3.txt</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run3.txt</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>run8.txt</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run8.txt</t>
+        </is>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>run3.txt</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run3.txt</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run4log\run2.txt</t>
+        </is>
+      </c>
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>run3.txt</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run3.txt</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>run8.txt</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run4log\run8.txt</t>
+        </is>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>run3.txt</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run3.txt</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>run6.txt</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run4log\run6.txt</t>
+        </is>
+      </c>
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>run5.txt</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run5.txt</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>run6.txt</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run6.txt</t>
+        </is>
+      </c>
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>run5.txt</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run5.txt</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>run8.txt</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run8.txt</t>
+        </is>
+      </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>run5.txt</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run5.txt</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>run7.txt</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run7.txt</t>
+        </is>
+      </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run2.txt</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>run3.txt</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run4log\run3.txt</t>
+        </is>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run2.txt</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>run4.txt</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run4.txt</t>
+        </is>
+      </c>
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run2.txt</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>run7.txt</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run4log\run7.txt</t>
+        </is>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run2.txt</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>run4.txt</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run4log\run4.txt</t>
+        </is>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run2.txt</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>run5.txt</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run5.txt</t>
+        </is>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run2.txt</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>run5.txt</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run4log\run5.txt</t>
+        </is>
+      </c>
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run2.txt</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run4log\run1.txt</t>
+        </is>
+      </c>
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>device.ios1</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios1</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>device.ios2</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios2</t>
+        </is>
+      </c>
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>device.ios1</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios1</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>device.ios3</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios3</t>
+        </is>
+      </c>
+      <c r="E124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>device.ios1</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios1</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>device.ios4</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios4</t>
+        </is>
+      </c>
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>xdd-7k-BS4-QD8-TG1-512_flash-log01</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\xdd-7k-BS4-QD8-TG1-512_flash-log01</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>xdd-7k-BS512K-QD16-TG1-512_flash-log09-k</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\xdd-7k-BS512K-QD16-TG1-512_flash-log09-k</t>
+        </is>
+      </c>
+      <c r="E126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>devlist.c0-vm1</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\ihara\devlist.c0-vm1</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>devlist.c1-vm1</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\ihara\devlist.c1-vm1</t>
+        </is>
+      </c>
+      <c r="E127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>devlist.vm1</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm1</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>devlist.vm3</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3</t>
+        </is>
+      </c>
+      <c r="E128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>devlist.vm3_4kall</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>devlist.vm4_4kall</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kall</t>
+        </is>
+      </c>
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>devlist.vm3_4kall</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>devlist.vm4_4kall.bkp</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kall.bkp</t>
+        </is>
+      </c>
+      <c r="E130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>devlist.vm3_4kall</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>devlist.vm3_4kall.bkp</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall.bkp</t>
+        </is>
+      </c>
+      <c r="E131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>devlist.vm3_4kallnew</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kallnew</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>devlist.vm4_4kallnew</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kallnew</t>
+        </is>
+      </c>
+      <c r="E132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>xdd-7ke-BS4-QD16-TG0-512.log</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\xdd-7ke-BS4-QD16-TG0-512.log</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>xdd-7ke-BS8-QD16-TG0-512.log</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\xdd-7ke-BS8-QD16-TG0-512.log</t>
+        </is>
+      </c>
+      <c r="E133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>xdd-7ke-BS2-QD8-TG0.log</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\xdd_results\xdd-7ke-BS2-QD8-TG0.log</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>xdd-7ke-BS4-QD16-TG0.log</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\xdd_results\xdd-7ke-BS4-QD16-TG0.log</t>
+        </is>
+      </c>
+      <c r="E134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>3.207-CVE_to_be_installed.txt</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-1\3.207-CVE_to_be_installed.txt</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>3.208-CVE_to_be_installed.txt</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-2\3.208-CVE_to_be_installed.txt</t>
+        </is>
+      </c>
+      <c r="E135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>KKD geo tagging (1).xlsx</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-1\KKD geo tagging (1).xlsx</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>KKD geo tagging.xlsx</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-2\KKD geo tagging.xlsx</t>
+        </is>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>KKD geo tagging (1).xlsx</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-1\KKD geo tagging (1).xlsx</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>KKD geo tagging (2).xlsx</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-2\KKD geo tagging (2).xlsx</t>
+        </is>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>KKD geo tagging (1).xlsx</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-1\KKD geo tagging (1).xlsx</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>KKD geo tagging (3).xlsx</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-2\KKD geo tagging (3).xlsx</t>
+        </is>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>LS____.pdf</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-1\LS____.pdf</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>LS____ (2).pdf</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-2\LS____ (2).pdf</t>
+        </is>
+      </c>
+      <c r="E139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>LS____.pdf</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-1\LS____.pdf</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>LS____ (1).pdf</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-2\LS____ (1).pdf</t>
+        </is>
+      </c>
+      <c r="E140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
           <t>235434221_RAW_PAN.pix</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-2\235434221_RAW_PAN.pix</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
         <is>
           <t>235434241_RAW_PAN.pix</t>
         </is>
       </c>
-      <c r="C66" t="b">
-        <v>0</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>235434221_RAW_PAN.pix</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>235434241_RAW_PAN.pix</t>
-        </is>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-2\235434241_RAW_PAN.pix</t>
+        </is>
+      </c>
+      <c r="E141" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/fuzzy_duplicates.xlsx
+++ b/fuzzy_duplicates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,3506 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio7.sh</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>fio7.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio5.sh</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>fio5.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio19.sh</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>fio19.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio9.sh</t>
+        </is>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>fio9.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio21.sh</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>fio21.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio8.sh</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>fio8.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio2.sh</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>fio2.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio14.sh</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>fio14.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio3.sh</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>fio3.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio12.sh</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>fio12.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio16.sh</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>fio16.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio6.sh</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>fio6.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio2.sh</t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>fio2.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio5.sh</t>
+        </is>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>fio5.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio3.sh</t>
+        </is>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>fio3.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio9.sh</t>
+        </is>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>fio9.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio4.sh</t>
+        </is>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>fio4.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio4.sh</t>
+        </is>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>fio4.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio6.sh</t>
+        </is>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>fio6.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio11.sh</t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>fio11.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio15.sh</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>fio15.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio7.sh</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>fio7.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio17.sh</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>fio17.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio18.sh</t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>fio18.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio8.sh</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>fio8.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio13.sh</t>
+        </is>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>fio13.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio14.sh</t>
+        </is>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>fio14.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio11.sh</t>
+        </is>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>fio11.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio17.sh</t>
+        </is>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>fio17.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio11.sh</t>
+        </is>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>fio11.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio20.sh</t>
+        </is>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio21.sh</t>
+        </is>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>fio21.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio17.sh</t>
+        </is>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>fio17.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio18.sh</t>
+        </is>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>fio18.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio19.sh</t>
+        </is>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>fio19.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio20.sh</t>
+        </is>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio15.sh</t>
+        </is>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>fio15.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio16.sh</t>
+        </is>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>fio16.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio13.sh</t>
+        </is>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>fio13.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio13.sh</t>
+        </is>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>fio13.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio16.sh</t>
+        </is>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>fio16.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio15.sh</t>
+        </is>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>fio15.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio19.sh</t>
+        </is>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>fio19.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio21.sh</t>
+        </is>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>fio21.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio12.sh</t>
+        </is>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>fio12.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio14.sh</t>
+        </is>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>fio14.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio12.sh</t>
+        </is>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>fio12.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio18.sh</t>
+        </is>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>fio18.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio23.sh</t>
+        </is>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>fio22.sh</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>fio23.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio24.sh</t>
+        </is>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>fio22.sh</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>fio24.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio12.sh</t>
+        </is>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>fio22.sh</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>fio12.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio20.sh</t>
+        </is>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>fio22.sh</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio21.sh</t>
+        </is>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>fio22.sh</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>fio21.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio23.sh</t>
+        </is>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>fio22.sh</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>fio23.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio12.sh</t>
+        </is>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>fio22.sh</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>fio12.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio24.sh</t>
+        </is>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>fio22.sh</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>fio24.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio20.sh</t>
+        </is>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>fio22.sh</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio21.sh</t>
+        </is>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>fio22.sh</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>fio21.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run6.txt</t>
+        </is>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>run6.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run4.txt</t>
+        </is>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>run4.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run18.txt</t>
+        </is>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>run18.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run20.txt</t>
+        </is>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>run20.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run13.txt</t>
+        </is>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>run13.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run10.txt</t>
+        </is>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>run10.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run24.txt</t>
+        </is>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>run24.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run5.txt</t>
+        </is>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>run5.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run7.txt</t>
+        </is>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>run7.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run17.txt</t>
+        </is>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>run17.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run14.txt</t>
+        </is>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>run14.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run11.txt</t>
+        </is>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>run11.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run9.txt</t>
+        </is>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>run9.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run15.txt</t>
+        </is>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>run15.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run21.txt</t>
+        </is>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>run21.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run12.txt</t>
+        </is>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>run12.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run16.txt</t>
+        </is>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>run16.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run3.txt</t>
+        </is>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>run3.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run8.txt</t>
+        </is>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>run8.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run22.txt</t>
+        </is>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>run22.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run23.txt</t>
+        </is>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>run23.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run2.txt</t>
+        </is>
+      </c>
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\run19.txt</t>
+        </is>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>run19.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\run1.txt</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\run4.txt</t>
+        </is>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>run4.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\run2.txt</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\run3.txt</t>
+        </is>
+      </c>
+      <c r="C85" t="b">
+        <v>0</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>run3.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio2.sh</t>
+        </is>
+      </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>fio2.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio8.sh</t>
+        </is>
+      </c>
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>fio8.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio9.sh</t>
+        </is>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>fio9.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio5.sh</t>
+        </is>
+      </c>
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>fio5.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio7.sh</t>
+        </is>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>fio7.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio4.sh</t>
+        </is>
+      </c>
+      <c r="C91" t="b">
+        <v>0</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>fio4.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio3.sh</t>
+        </is>
+      </c>
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>fio3.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio1.sh</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio6.sh</t>
+        </is>
+      </c>
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>fio1.sh</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>fio6.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio20.sh</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio10.sh</t>
+        </is>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>fio10.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio20.sh</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio12.sh</t>
+        </is>
+      </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>fio12.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio20.sh</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio2.sh</t>
+        </is>
+      </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>fio2.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio20.sh</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio21.sh</t>
+        </is>
+      </c>
+      <c r="C97" t="b">
+        <v>0</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>fio21.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio20.sh</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio24.sh</t>
+        </is>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>fio24.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio20.sh</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio22.sh</t>
+        </is>
+      </c>
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>fio22.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio20.sh</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\fio2.sh</t>
+        </is>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>fio2.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio20.sh</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\fio23.sh</t>
+        </is>
+      </c>
+      <c r="C101" t="b">
+        <v>0</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>fio20.sh</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>fio23.sh</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run1log\run2.txt</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run1log\run4.txt</t>
+        </is>
+      </c>
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>run4.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run1log\run2.txt</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run1log\run3.txt</t>
+        </is>
+      </c>
+      <c r="C103" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>run3.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run1.txt</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run7.txt</t>
+        </is>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>run7.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run1.txt</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run3.txt</t>
+        </is>
+      </c>
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>run3.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run1.txt</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run4.txt</t>
+        </is>
+      </c>
+      <c r="C106" t="b">
+        <v>0</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>run4.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run1.txt</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run6.txt</t>
+        </is>
+      </c>
+      <c r="C107" t="b">
+        <v>0</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>run6.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run3.txt</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run4log\run8.txt</t>
+        </is>
+      </c>
+      <c r="C108" t="b">
+        <v>0</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>run3.txt</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>run8.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run3.txt</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run4log\run6.txt</t>
+        </is>
+      </c>
+      <c r="C109" t="b">
+        <v>0</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>run3.txt</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>run6.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run3.txt</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run4log\run2.txt</t>
+        </is>
+      </c>
+      <c r="C110" t="b">
+        <v>0</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>run3.txt</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run3.txt</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run8.txt</t>
+        </is>
+      </c>
+      <c r="C111" t="b">
+        <v>0</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>run3.txt</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>run8.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run3.txt</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run1.txt</t>
+        </is>
+      </c>
+      <c r="C112" t="b">
+        <v>0</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>run3.txt</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run5.txt</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run6.txt</t>
+        </is>
+      </c>
+      <c r="C113" t="b">
+        <v>0</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>run5.txt</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>run6.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run5.txt</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run8.txt</t>
+        </is>
+      </c>
+      <c r="C114" t="b">
+        <v>0</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>run5.txt</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>run8.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run5.txt</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run2log\run7.txt</t>
+        </is>
+      </c>
+      <c r="C115" t="b">
+        <v>0</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>run5.txt</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>run7.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run2.txt</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run4log\run7.txt</t>
+        </is>
+      </c>
+      <c r="C116" t="b">
+        <v>0</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>run7.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run2.txt</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run5.txt</t>
+        </is>
+      </c>
+      <c r="C117" t="b">
+        <v>0</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>run5.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run2.txt</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run4log\run1.txt</t>
+        </is>
+      </c>
+      <c r="C118" t="b">
+        <v>0</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>run1.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run2.txt</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run4log\run5.txt</t>
+        </is>
+      </c>
+      <c r="C119" t="b">
+        <v>0</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>run5.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run2.txt</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run4log\run4.txt</t>
+        </is>
+      </c>
+      <c r="C120" t="b">
+        <v>0</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>run4.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run2.txt</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run4log\run3.txt</t>
+        </is>
+      </c>
+      <c r="C121" t="b">
+        <v>0</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>run3.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run2.txt</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\fio-bm\fio-bm\flash\run3log\run4.txt</t>
+        </is>
+      </c>
+      <c r="C122" t="b">
+        <v>0</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>run2.txt</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>run4.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios1</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios4</t>
+        </is>
+      </c>
+      <c r="C123" t="b">
+        <v>0</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>device.ios1</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>device.ios4</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios1</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios3</t>
+        </is>
+      </c>
+      <c r="C124" t="b">
+        <v>0</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>device.ios1</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>device.ios3</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios1</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios2</t>
+        </is>
+      </c>
+      <c r="C125" t="b">
+        <v>0</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>device.ios1</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>device.ios2</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\xdd-7k-BS4-QD8-TG1-512_flash-log01</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\xdd-7k-BS512K-QD16-TG1-512_flash-log09-k</t>
+        </is>
+      </c>
+      <c r="C126" t="b">
+        <v>0</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>xdd-7k-BS4-QD8-TG1-512_flash-log01</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>xdd-7k-BS512K-QD16-TG1-512_flash-log09-k</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\ihara\devlist.c0-vm1</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\ihara\devlist.c1-vm1</t>
+        </is>
+      </c>
+      <c r="C127" t="b">
+        <v>0</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>devlist.c0-vm1</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>devlist.c1-vm1</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm1</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3</t>
+        </is>
+      </c>
+      <c r="C128" t="b">
+        <v>0</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>devlist.vm1</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>devlist.vm3</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kall.bkp</t>
+        </is>
+      </c>
+      <c r="C129" t="b">
+        <v>0</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>devlist.vm3_4kall</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>devlist.vm4_4kall.bkp</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kall</t>
+        </is>
+      </c>
+      <c r="C130" t="b">
+        <v>0</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>devlist.vm3_4kall</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>devlist.vm4_4kall</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall.bkp</t>
+        </is>
+      </c>
+      <c r="C131" t="b">
+        <v>1</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>devlist.vm3_4kall</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>devlist.vm3_4kall.bkp</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kallnew</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kallnew</t>
+        </is>
+      </c>
+      <c r="C132" t="b">
+        <v>0</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>devlist.vm3_4kallnew</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>devlist.vm4_4kallnew</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\xdd-7ke-BS4-QD16-TG0-512.log</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\xdd-7ke-BS8-QD16-TG0-512.log</t>
+        </is>
+      </c>
+      <c r="C133" t="b">
+        <v>0</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>xdd-7ke-BS4-QD16-TG0-512.log</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>xdd-7ke-BS8-QD16-TG0-512.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\xdd_results\xdd-7ke-BS2-QD8-TG0.log</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\xdd_results\xdd-7ke-BS4-QD16-TG0.log</t>
+        </is>
+      </c>
+      <c r="C134" t="b">
+        <v>0</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>xdd-7ke-BS2-QD8-TG0.log</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>xdd-7ke-BS4-QD16-TG0.log</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-1\3.207-CVE_to_be_installed.txt</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-2\3.208-CVE_to_be_installed.txt</t>
+        </is>
+      </c>
+      <c r="C135" t="b">
+        <v>1</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>3.207-CVE_to_be_installed.txt</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>3.208-CVE_to_be_installed.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-1\KKD geo tagging (1).xlsx</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-2\KKD geo tagging.xlsx</t>
+        </is>
+      </c>
+      <c r="C136" t="b">
+        <v>1</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>KKD geo tagging (1).xlsx</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>KKD geo tagging.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-1\KKD geo tagging (1).xlsx</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-2\KKD geo tagging (2).xlsx</t>
+        </is>
+      </c>
+      <c r="C137" t="b">
+        <v>1</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>KKD geo tagging (1).xlsx</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>KKD geo tagging (2).xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-1\KKD geo tagging (1).xlsx</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-2\KKD geo tagging (3).xlsx</t>
+        </is>
+      </c>
+      <c r="C138" t="b">
+        <v>1</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>KKD geo tagging (1).xlsx</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>KKD geo tagging (3).xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-1\LS____.pdf</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-2\LS____ (2).pdf</t>
+        </is>
+      </c>
+      <c r="C139" t="b">
+        <v>0</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>LS____.pdf</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>LS____ (2).pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-1\LS____.pdf</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-2\LS____ (1).pdf</t>
+        </is>
+      </c>
+      <c r="C140" t="b">
+        <v>0</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>LS____.pdf</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>LS____ (1).pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-2\235434221_RAW_PAN.pix</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\Data RR\\dataset1\folder-2\235434241_RAW_PAN.pix</t>
+        </is>
+      </c>
+      <c r="C141" t="b">
+        <v>0</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>235434221_RAW_PAN.pix</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>235434241_RAW_PAN.pix</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/fuzzy_duplicates.xlsx
+++ b/fuzzy_duplicates.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio2.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio3.sh</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -481,7 +481,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fio2.sh</t>
+          <t>fio3.sh</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio5.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio7.sh</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -506,7 +506,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fio5.sh</t>
+          <t>fio7.sh</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio9.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio8.sh</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -531,7 +531,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fio9.sh</t>
+          <t>fio8.sh</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio3.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio2.sh</t>
         </is>
       </c>
       <c r="C5" t="b">
@@ -556,7 +556,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fio3.sh</t>
+          <t>fio2.sh</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio7.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio9.sh</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -581,7 +581,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fio7.sh</t>
+          <t>fio9.sh</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio4.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio5.sh</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -606,7 +606,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fio4.sh</t>
+          <t>fio5.sh</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio8.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio6.sh</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -631,7 +631,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fio8.sh</t>
+          <t>fio6.sh</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio6.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio4.sh</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -656,7 +656,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fio6.sh</t>
+          <t>fio4.sh</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio16.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio13.sh</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -681,7 +681,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fio16.sh</t>
+          <t>fio13.sh</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio11.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio16.sh</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -706,7 +706,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fio11.sh</t>
+          <t>fio16.sh</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio13.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio17.sh</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -731,7 +731,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fio13.sh</t>
+          <t>fio17.sh</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio19.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio12.sh</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -756,7 +756,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fio19.sh</t>
+          <t>fio12.sh</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio14.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio20.sh</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -781,7 +781,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fio14.sh</t>
+          <t>fio20.sh</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio20.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio11.sh</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -806,7 +806,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>fio11.sh</t>
         </is>
       </c>
     </row>
@@ -818,7 +818,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio18.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio19.sh</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -831,7 +831,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fio18.sh</t>
+          <t>fio19.sh</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio12.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio14.sh</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -881,7 +881,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>fio14.sh</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio15.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio18.sh</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -906,7 +906,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fio15.sh</t>
+          <t>fio18.sh</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio17.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio15.sh</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -931,7 +931,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fio17.sh</t>
+          <t>fio15.sh</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio24.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio12.sh</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -956,7 +956,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fio24.sh</t>
+          <t>fio12.sh</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio23.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio20.sh</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -981,7 +981,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fio23.sh</t>
+          <t>fio20.sh</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio20.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio23.sh</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>fio23.sh</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio12.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio24.sh</t>
         </is>
       </c>
       <c r="C25" t="b">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>fio24.sh</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run6.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run11.txt</t>
         </is>
       </c>
       <c r="C26" t="b">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>run6.txt</t>
+          <t>run11.txt</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run18.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run5.txt</t>
         </is>
       </c>
       <c r="C27" t="b">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>run18.txt</t>
+          <t>run5.txt</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run23.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run6.txt</t>
         </is>
       </c>
       <c r="C28" t="b">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>run23.txt</t>
+          <t>run6.txt</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run2.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run21.txt</t>
         </is>
       </c>
       <c r="C29" t="b">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>run2.txt</t>
+          <t>run21.txt</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run3.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run2.txt</t>
         </is>
       </c>
       <c r="C31" t="b">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>run3.txt</t>
+          <t>run2.txt</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run8.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run12.txt</t>
         </is>
       </c>
       <c r="C32" t="b">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>run8.txt</t>
+          <t>run12.txt</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run13.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run7.txt</t>
         </is>
       </c>
       <c r="C33" t="b">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>run13.txt</t>
+          <t>run7.txt</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run12.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run14.txt</t>
         </is>
       </c>
       <c r="C34" t="b">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>run12.txt</t>
+          <t>run14.txt</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run16.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run15.txt</t>
         </is>
       </c>
       <c r="C35" t="b">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>run16.txt</t>
+          <t>run15.txt</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run21.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run3.txt</t>
         </is>
       </c>
       <c r="C37" t="b">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>run21.txt</t>
+          <t>run3.txt</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run5.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run10.txt</t>
         </is>
       </c>
       <c r="C38" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>run5.txt</t>
+          <t>run10.txt</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run10.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run16.txt</t>
         </is>
       </c>
       <c r="C39" t="b">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>run10.txt</t>
+          <t>run16.txt</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run15.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run13.txt</t>
         </is>
       </c>
       <c r="C40" t="b">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>run15.txt</t>
+          <t>run13.txt</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run4.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run8.txt</t>
         </is>
       </c>
       <c r="C41" t="b">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>run4.txt</t>
+          <t>run8.txt</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run20.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run17.txt</t>
         </is>
       </c>
       <c r="C42" t="b">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>run20.txt</t>
+          <t>run17.txt</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run7.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run4.txt</t>
         </is>
       </c>
       <c r="C43" t="b">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>run7.txt</t>
+          <t>run4.txt</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run19.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run20.txt</t>
         </is>
       </c>
       <c r="C44" t="b">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>run19.txt</t>
+          <t>run20.txt</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run11.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run18.txt</t>
         </is>
       </c>
       <c r="C45" t="b">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>run11.txt</t>
+          <t>run18.txt</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run17.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run24.txt</t>
         </is>
       </c>
       <c r="C46" t="b">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>run17.txt</t>
+          <t>run24.txt</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run14.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run19.txt</t>
         </is>
       </c>
       <c r="C47" t="b">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>run14.txt</t>
+          <t>run19.txt</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run24.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run23.txt</t>
         </is>
       </c>
       <c r="C48" t="b">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>run24.txt</t>
+          <t>run23.txt</t>
         </is>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\device.ios4</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\device.ios3</t>
         </is>
       </c>
       <c r="C49" t="b">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>device.ios4</t>
+          <t>device.ios3</t>
         </is>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\device.ios3</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\device.ios4</t>
         </is>
       </c>
       <c r="C51" t="b">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>device.ios3</t>
+          <t>device.ios4</t>
         </is>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\KKD geo tagging.xlsx</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\KKD geo tagging (2).xlsx</t>
         </is>
       </c>
       <c r="C61" t="b">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>KKD geo tagging.xlsx</t>
+          <t>KKD geo tagging (2).xlsx</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\KKD geo tagging (2).xlsx</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\KKD geo tagging.xlsx</t>
         </is>
       </c>
       <c r="C62" t="b">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>KKD geo tagging (2).xlsx</t>
+          <t>KKD geo tagging.xlsx</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\LS____ (2).pdf</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\LS____ (1).pdf</t>
         </is>
       </c>
       <c r="C64" t="b">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>LS____ (2).pdf</t>
+          <t>LS____ (1).pdf</t>
         </is>
       </c>
     </row>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\LS____ (1).pdf</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\LS____ (2).pdf</t>
         </is>
       </c>
       <c r="C65" t="b">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>LS____ (1).pdf</t>
+          <t>LS____ (2).pdf</t>
         </is>
       </c>
     </row>

--- a/fuzzy_duplicates.xlsx
+++ b/fuzzy_duplicates.xlsx
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio3.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio8.sh</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -481,19 +481,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fio3.sh</t>
+          <t>fio8.sh</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio7.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio5.sh</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -506,19 +506,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fio7.sh</t>
+          <t>fio5.sh</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio8.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio2.sh</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -531,19 +531,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fio8.sh</t>
+          <t>fio2.sh</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio2.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio9.sh</t>
         </is>
       </c>
       <c r="C5" t="b">
@@ -556,19 +556,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fio2.sh</t>
+          <t>fio9.sh</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio9.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio4.sh</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -581,19 +581,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fio9.sh</t>
+          <t>fio4.sh</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio5.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio7.sh</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -606,19 +606,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fio5.sh</t>
+          <t>fio7.sh</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio6.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio6.sh</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -638,12 +638,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio4.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio3.sh</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -656,19 +656,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fio4.sh</t>
+          <t>fio3.sh</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio13.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio16.sh</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -681,19 +681,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fio13.sh</t>
+          <t>fio16.sh</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio16.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio21.sh</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -706,19 +706,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fio16.sh</t>
+          <t>fio21.sh</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio17.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio13.sh</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -731,19 +731,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fio17.sh</t>
+          <t>fio13.sh</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio12.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio14.sh</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -756,19 +756,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>fio14.sh</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio20.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio12.sh</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -781,19 +781,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>fio12.sh</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio11.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio20.sh</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -806,19 +806,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fio11.sh</t>
+          <t>fio20.sh</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio19.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio18.sh</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -831,19 +831,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fio19.sh</t>
+          <t>fio18.sh</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio21.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio19.sh</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -856,19 +856,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
+          <t>fio19.sh</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio14.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio17.sh</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -881,19 +881,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fio14.sh</t>
+          <t>fio17.sh</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio18.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio15.sh</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -906,19 +906,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fio18.sh</t>
+          <t>fio15.sh</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio15.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio11.sh</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -931,19 +931,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fio15.sh</t>
+          <t>fio11.sh</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio22.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio12.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio21.sh</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -956,19 +956,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>fio21.sh</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio22.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio20.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio24.sh</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -981,19 +981,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>fio24.sh</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio22.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio23.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio12.sh</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -1006,19 +1006,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fio23.sh</t>
+          <t>fio12.sh</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio22.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio21.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio20.sh</t>
         </is>
       </c>
       <c r="C24" t="b">
@@ -1031,19 +1031,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
+          <t>fio20.sh</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio22.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\fio24.sh</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio23.sh</t>
         </is>
       </c>
       <c r="C25" t="b">
@@ -1056,19 +1056,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fio24.sh</t>
+          <t>fio23.sh</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run11.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run4.txt</t>
         </is>
       </c>
       <c r="C26" t="b">
@@ -1081,19 +1081,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>run11.txt</t>
+          <t>run4.txt</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run5.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run22.txt</t>
         </is>
       </c>
       <c r="C27" t="b">
@@ -1106,19 +1106,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>run5.txt</t>
+          <t>run22.txt</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run6.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run23.txt</t>
         </is>
       </c>
       <c r="C28" t="b">
@@ -1131,19 +1131,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>run6.txt</t>
+          <t>run23.txt</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run21.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run3.txt</t>
         </is>
       </c>
       <c r="C29" t="b">
@@ -1156,19 +1156,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>run21.txt</t>
+          <t>run3.txt</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run22.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run10.txt</t>
         </is>
       </c>
       <c r="C30" t="b">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>run22.txt</t>
+          <t>run10.txt</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run2.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run8.txt</t>
         </is>
       </c>
       <c r="C31" t="b">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>run2.txt</t>
+          <t>run8.txt</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run12.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run18.txt</t>
         </is>
       </c>
       <c r="C32" t="b">
@@ -1231,19 +1231,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>run12.txt</t>
+          <t>run18.txt</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run7.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run20.txt</t>
         </is>
       </c>
       <c r="C33" t="b">
@@ -1256,19 +1256,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>run7.txt</t>
+          <t>run20.txt</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run14.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run2.txt</t>
         </is>
       </c>
       <c r="C34" t="b">
@@ -1281,19 +1281,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>run14.txt</t>
+          <t>run2.txt</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run15.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run14.txt</t>
         </is>
       </c>
       <c r="C35" t="b">
@@ -1306,19 +1306,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>run15.txt</t>
+          <t>run14.txt</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run9.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run12.txt</t>
         </is>
       </c>
       <c r="C36" t="b">
@@ -1331,19 +1331,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>run9.txt</t>
+          <t>run12.txt</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run3.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run13.txt</t>
         </is>
       </c>
       <c r="C37" t="b">
@@ -1356,19 +1356,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>run3.txt</t>
+          <t>run13.txt</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run10.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run24.txt</t>
         </is>
       </c>
       <c r="C38" t="b">
@@ -1381,19 +1381,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>run10.txt</t>
+          <t>run24.txt</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run16.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run21.txt</t>
         </is>
       </c>
       <c r="C39" t="b">
@@ -1406,19 +1406,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>run16.txt</t>
+          <t>run21.txt</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run13.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run11.txt</t>
         </is>
       </c>
       <c r="C40" t="b">
@@ -1431,19 +1431,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>run13.txt</t>
+          <t>run11.txt</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run8.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run6.txt</t>
         </is>
       </c>
       <c r="C41" t="b">
@@ -1456,19 +1456,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>run8.txt</t>
+          <t>run6.txt</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run17.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run7.txt</t>
         </is>
       </c>
       <c r="C42" t="b">
@@ -1481,19 +1481,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>run17.txt</t>
+          <t>run7.txt</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run4.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run17.txt</t>
         </is>
       </c>
       <c r="C43" t="b">
@@ -1506,19 +1506,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>run4.txt</t>
+          <t>run17.txt</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run20.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run19.txt</t>
         </is>
       </c>
       <c r="C44" t="b">
@@ -1531,19 +1531,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>run20.txt</t>
+          <t>run19.txt</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run18.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run9.txt</t>
         </is>
       </c>
       <c r="C45" t="b">
@@ -1556,19 +1556,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>run18.txt</t>
+          <t>run9.txt</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run24.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run15.txt</t>
         </is>
       </c>
       <c r="C46" t="b">
@@ -1581,19 +1581,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>run24.txt</t>
+          <t>run15.txt</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run19.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run16.txt</t>
         </is>
       </c>
       <c r="C47" t="b">
@@ -1606,19 +1606,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>run19.txt</t>
+          <t>run16.txt</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\fio-bm\run23.txt</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run5.txt</t>
         </is>
       </c>
       <c r="C48" t="b">
@@ -1631,19 +1631,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>run23.txt</t>
+          <t>run5.txt</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\device.ios1</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\device.ios3</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios2</t>
         </is>
       </c>
       <c r="C49" t="b">
@@ -1656,19 +1656,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>device.ios3</t>
+          <t>device.ios2</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\device.ios1</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\device.ios2</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios3</t>
         </is>
       </c>
       <c r="C50" t="b">
@@ -1681,19 +1681,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>device.ios2</t>
+          <t>device.ios3</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\device.ios1</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\device.ios4</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios4</t>
         </is>
       </c>
       <c r="C51" t="b">
@@ -1713,12 +1713,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\xdd-7k-BS4-QD8-TG1-512_flash-log01</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\xdd-7k-BS4-QD8-TG1-512_flash-log01</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\xdd-7k-BS512K-QD16-TG1-512_flash-log09-k</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\xdd-7k-BS512K-QD16-TG1-512_flash-log09-k</t>
         </is>
       </c>
       <c r="C52" t="b">
@@ -1738,12 +1738,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\ihara\devlist.c0-vm1</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\ihara\devlist.c0-vm1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\ihara\devlist.c1-vm1</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\ihara\devlist.c1-vm1</t>
         </is>
       </c>
       <c r="C53" t="b">
@@ -1763,12 +1763,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\XDD\devlist.vm1</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\XDD\devlist.vm3</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3</t>
         </is>
       </c>
       <c r="C54" t="b">
@@ -1788,16 +1788,16 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall.bkp</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kall.bkp</t>
         </is>
       </c>
       <c r="C55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1806,19 +1806,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>devlist.vm3_4kall.bkp</t>
+          <t>devlist.vm4_4kall.bkp</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kall</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kall</t>
         </is>
       </c>
       <c r="C56" t="b">
@@ -1838,16 +1838,16 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kall.bkp</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall.bkp</t>
         </is>
       </c>
       <c r="C57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1856,19 +1856,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>devlist.vm4_4kall.bkp</t>
+          <t>devlist.vm3_4kall.bkp</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kallnew</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kallnew</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kallnew</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kallnew</t>
         </is>
       </c>
       <c r="C58" t="b">
@@ -1888,12 +1888,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\XDD\xdd-7ke-BS4-QD16-TG0-512.log</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\xdd-7ke-BS4-QD16-TG0-512.log</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\aa\opt\ddn\others\RAW_BM\XDD\xdd-7ke-BS8-QD16-TG0-512.log</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\xdd-7ke-BS8-QD16-TG0-512.log</t>
         </is>
       </c>
       <c r="C59" t="b">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\KKD geo tagging.xlsx</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\KKD geo tagging (3).xlsx</t>
         </is>
       </c>
       <c r="C62" t="b">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>KKD geo tagging.xlsx</t>
+          <t>KKD geo tagging (3).xlsx</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\KKD geo tagging (3).xlsx</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\KKD geo tagging.xlsx</t>
         </is>
       </c>
       <c r="C63" t="b">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>KKD geo tagging (3).xlsx</t>
+          <t>KKD geo tagging.xlsx</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\LS____ (1).pdf</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\LS____ (2).pdf</t>
         </is>
       </c>
       <c r="C64" t="b">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>LS____ (1).pdf</t>
+          <t>LS____ (2).pdf</t>
         </is>
       </c>
     </row>
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\LS____ (2).pdf</t>
+          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\LS____ (1).pdf</t>
         </is>
       </c>
       <c r="C65" t="b">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>LS____ (2).pdf</t>
+          <t>LS____ (1).pdf</t>
         </is>
       </c>
     </row>

--- a/fuzzy_duplicates.xlsx
+++ b/fuzzy_duplicates.xlsx
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio8.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio3.sh</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -481,19 +481,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fio8.sh</t>
+          <t>fio3.sh</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio5.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio4.sh</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -506,19 +506,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fio5.sh</t>
+          <t>fio4.sh</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio2.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio7.sh</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -531,19 +531,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fio2.sh</t>
+          <t>fio7.sh</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio9.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio6.sh</t>
         </is>
       </c>
       <c r="C5" t="b">
@@ -556,19 +556,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fio9.sh</t>
+          <t>fio6.sh</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio4.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio2.sh</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -581,19 +581,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fio4.sh</t>
+          <t>fio2.sh</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio7.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio5.sh</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -606,19 +606,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fio7.sh</t>
+          <t>fio5.sh</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio6.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio9.sh</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -631,19 +631,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fio6.sh</t>
+          <t>fio9.sh</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio3.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio8.sh</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -656,19 +656,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fio3.sh</t>
+          <t>fio8.sh</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio16.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio15.sh</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -681,19 +681,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fio16.sh</t>
+          <t>fio15.sh</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio21.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio16.sh</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -706,19 +706,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
+          <t>fio16.sh</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio13.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio17.sh</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -731,19 +731,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fio13.sh</t>
+          <t>fio17.sh</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio14.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio11.sh</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -756,19 +756,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fio14.sh</t>
+          <t>fio11.sh</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio12.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio12.sh</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -788,12 +788,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio20.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio14.sh</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -806,19 +806,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>fio14.sh</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio18.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio19.sh</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -831,19 +831,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fio18.sh</t>
+          <t>fio19.sh</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio19.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio20.sh</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -856,19 +856,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fio19.sh</t>
+          <t>fio20.sh</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio17.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio18.sh</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -881,19 +881,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fio17.sh</t>
+          <t>fio18.sh</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio15.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio21.sh</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -906,19 +906,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fio15.sh</t>
+          <t>fio21.sh</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio11.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio13.sh</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -931,19 +931,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fio11.sh</t>
+          <t>fio13.sh</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio21.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio12.sh</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -956,19 +956,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
+          <t>fio12.sh</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio24.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio20.sh</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -981,19 +981,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fio24.sh</t>
+          <t>fio20.sh</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio12.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio24.sh</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -1006,19 +1006,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>fio24.sh</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio20.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio23.sh</t>
         </is>
       </c>
       <c r="C24" t="b">
@@ -1031,19 +1031,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>fio23.sh</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\fio23.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio21.sh</t>
         </is>
       </c>
       <c r="C25" t="b">
@@ -1056,19 +1056,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fio23.sh</t>
+          <t>fio21.sh</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run4.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run14.txt</t>
         </is>
       </c>
       <c r="C26" t="b">
@@ -1081,19 +1081,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>run4.txt</t>
+          <t>run14.txt</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run22.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run8.txt</t>
         </is>
       </c>
       <c r="C27" t="b">
@@ -1106,19 +1106,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>run22.txt</t>
+          <t>run8.txt</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run23.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run10.txt</t>
         </is>
       </c>
       <c r="C28" t="b">
@@ -1131,19 +1131,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>run23.txt</t>
+          <t>run10.txt</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run3.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run7.txt</t>
         </is>
       </c>
       <c r="C29" t="b">
@@ -1156,19 +1156,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>run3.txt</t>
+          <t>run7.txt</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run10.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run5.txt</t>
         </is>
       </c>
       <c r="C30" t="b">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>run10.txt</t>
+          <t>run5.txt</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run8.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run20.txt</t>
         </is>
       </c>
       <c r="C31" t="b">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>run8.txt</t>
+          <t>run20.txt</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run18.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run15.txt</t>
         </is>
       </c>
       <c r="C32" t="b">
@@ -1231,19 +1231,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>run18.txt</t>
+          <t>run15.txt</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run20.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run22.txt</t>
         </is>
       </c>
       <c r="C33" t="b">
@@ -1256,19 +1256,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>run20.txt</t>
+          <t>run22.txt</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run2.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run19.txt</t>
         </is>
       </c>
       <c r="C34" t="b">
@@ -1281,19 +1281,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>run2.txt</t>
+          <t>run19.txt</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run14.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run2.txt</t>
         </is>
       </c>
       <c r="C35" t="b">
@@ -1306,19 +1306,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>run14.txt</t>
+          <t>run2.txt</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run12.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run6.txt</t>
         </is>
       </c>
       <c r="C36" t="b">
@@ -1331,19 +1331,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>run12.txt</t>
+          <t>run6.txt</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run13.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run21.txt</t>
         </is>
       </c>
       <c r="C37" t="b">
@@ -1356,19 +1356,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>run13.txt</t>
+          <t>run21.txt</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run24.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run24.txt</t>
         </is>
       </c>
       <c r="C38" t="b">
@@ -1388,12 +1388,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run21.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run23.txt</t>
         </is>
       </c>
       <c r="C39" t="b">
@@ -1406,19 +1406,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>run21.txt</t>
+          <t>run23.txt</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run11.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run18.txt</t>
         </is>
       </c>
       <c r="C40" t="b">
@@ -1431,19 +1431,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>run11.txt</t>
+          <t>run18.txt</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run6.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run17.txt</t>
         </is>
       </c>
       <c r="C41" t="b">
@@ -1456,19 +1456,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>run6.txt</t>
+          <t>run17.txt</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run7.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run11.txt</t>
         </is>
       </c>
       <c r="C42" t="b">
@@ -1481,19 +1481,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>run7.txt</t>
+          <t>run11.txt</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run17.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run13.txt</t>
         </is>
       </c>
       <c r="C43" t="b">
@@ -1506,19 +1506,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>run17.txt</t>
+          <t>run13.txt</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run19.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run4.txt</t>
         </is>
       </c>
       <c r="C44" t="b">
@@ -1531,19 +1531,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>run19.txt</t>
+          <t>run4.txt</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run9.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run3.txt</t>
         </is>
       </c>
       <c r="C45" t="b">
@@ -1556,19 +1556,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>run9.txt</t>
+          <t>run3.txt</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run15.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run16.txt</t>
         </is>
       </c>
       <c r="C46" t="b">
@@ -1581,19 +1581,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>run15.txt</t>
+          <t>run16.txt</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run16.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run9.txt</t>
         </is>
       </c>
       <c r="C47" t="b">
@@ -1606,19 +1606,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>run16.txt</t>
+          <t>run9.txt</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\fio-bm\run5.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run12.txt</t>
         </is>
       </c>
       <c r="C48" t="b">
@@ -1631,19 +1631,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>run5.txt</t>
+          <t>run12.txt</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios1</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios2</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios3</t>
         </is>
       </c>
       <c r="C49" t="b">
@@ -1656,19 +1656,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>device.ios2</t>
+          <t>device.ios3</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios1</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios3</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios4</t>
         </is>
       </c>
       <c r="C50" t="b">
@@ -1681,19 +1681,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>device.ios3</t>
+          <t>device.ios4</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios1</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios4</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios2</t>
         </is>
       </c>
       <c r="C51" t="b">
@@ -1706,19 +1706,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>device.ios4</t>
+          <t>device.ios2</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\xdd-7k-BS4-QD8-TG1-512_flash-log01</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\xdd-7k-BS4-QD8-TG1-512_flash-log01</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\xdd-7k-BS512K-QD16-TG1-512_flash-log09-k</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\xdd-7k-BS512K-QD16-TG1-512_flash-log09-k</t>
         </is>
       </c>
       <c r="C52" t="b">
@@ -1738,12 +1738,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\ihara\devlist.c0-vm1</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\ihara\devlist.c0-vm1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\ihara\devlist.c1-vm1</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\ihara\devlist.c1-vm1</t>
         </is>
       </c>
       <c r="C53" t="b">
@@ -1763,12 +1763,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm1</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3</t>
         </is>
       </c>
       <c r="C54" t="b">
@@ -1788,12 +1788,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kall.bkp</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kall.bkp</t>
         </is>
       </c>
       <c r="C55" t="b">
@@ -1813,16 +1813,16 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kall</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall.bkp</t>
         </is>
       </c>
       <c r="C56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1831,23 +1831,23 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>devlist.vm4_4kall</t>
+          <t>devlist.vm3_4kall.bkp</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall.bkp</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kall</t>
         </is>
       </c>
       <c r="C57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1856,19 +1856,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>devlist.vm3_4kall.bkp</t>
+          <t>devlist.vm4_4kall</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kallnew</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kallnew</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kallnew</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kallnew</t>
         </is>
       </c>
       <c r="C58" t="b">
@@ -1888,12 +1888,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\xdd-7ke-BS4-QD16-TG0-512.log</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\xdd-7ke-BS4-QD16-TG0-512.log</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\xdd-7ke-BS8-QD16-TG0-512.log</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\xdd-7ke-BS8-QD16-TG0-512.log</t>
         </is>
       </c>
       <c r="C59" t="b">
@@ -1913,12 +1913,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-1\3.207-CVE_to_be_installed.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-1\3.207-CVE_to_be_installed.txt</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\3.208-CVE_to_be_installed.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-2\3.208-CVE_to_be_installed.txt</t>
         </is>
       </c>
       <c r="C60" t="b">
@@ -1938,12 +1938,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-1\KKD geo tagging (1).xlsx</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-1\KKD geo tagging (1).xlsx</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\KKD geo tagging (2).xlsx</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-2\KKD geo tagging.xlsx</t>
         </is>
       </c>
       <c r="C61" t="b">
@@ -1956,19 +1956,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>KKD geo tagging (2).xlsx</t>
+          <t>KKD geo tagging.xlsx</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-1\KKD geo tagging (1).xlsx</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-1\KKD geo tagging (1).xlsx</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\KKD geo tagging (3).xlsx</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-2\KKD geo tagging (3).xlsx</t>
         </is>
       </c>
       <c r="C62" t="b">
@@ -1988,12 +1988,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-1\KKD geo tagging (1).xlsx</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-1\KKD geo tagging (1).xlsx</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\KKD geo tagging.xlsx</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-2\KKD geo tagging (2).xlsx</t>
         </is>
       </c>
       <c r="C63" t="b">
@@ -2006,19 +2006,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>KKD geo tagging.xlsx</t>
+          <t>KKD geo tagging (2).xlsx</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-1\LS____.pdf</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-1\LS____.pdf</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\LS____ (2).pdf</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-2\LS____ (2).pdf</t>
         </is>
       </c>
       <c r="C64" t="b">
@@ -2038,12 +2038,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-1\LS____.pdf</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-1\LS____.pdf</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\LS____ (1).pdf</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-2\LS____ (1).pdf</t>
         </is>
       </c>
       <c r="C65" t="b">
@@ -2063,12 +2063,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\235434221_RAW_PAN.pix</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-2\235434221_RAW_PAN.pix</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>D:\\adhvik\\adh\\Hackathon\\space hack\\top12 data\\topic12\\dataset1\folder-2\235434241_RAW_PAN.pix</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-2\235434241_RAW_PAN.pix</t>
         </is>
       </c>
       <c r="C66" t="b">

--- a/fuzzy_duplicates.xlsx
+++ b/fuzzy_duplicates.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio7.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio6.sh</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -531,7 +531,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fio7.sh</t>
+          <t>fio6.sh</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio6.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio2.sh</t>
         </is>
       </c>
       <c r="C5" t="b">
@@ -556,7 +556,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fio6.sh</t>
+          <t>fio2.sh</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio2.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio5.sh</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -581,7 +581,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fio2.sh</t>
+          <t>fio5.sh</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio5.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio7.sh</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -606,7 +606,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fio5.sh</t>
+          <t>fio7.sh</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio9.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio8.sh</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -631,7 +631,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fio9.sh</t>
+          <t>fio8.sh</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio8.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio9.sh</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -656,7 +656,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fio8.sh</t>
+          <t>fio9.sh</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio15.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio19.sh</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -681,7 +681,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fio15.sh</t>
+          <t>fio19.sh</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio16.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio12.sh</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -706,7 +706,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fio16.sh</t>
+          <t>fio12.sh</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio17.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio15.sh</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -731,7 +731,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fio17.sh</t>
+          <t>fio15.sh</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio11.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio20.sh</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -756,7 +756,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fio11.sh</t>
+          <t>fio20.sh</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio12.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio11.sh</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -781,7 +781,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>fio11.sh</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio14.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio17.sh</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -806,7 +806,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fio14.sh</t>
+          <t>fio17.sh</t>
         </is>
       </c>
     </row>
@@ -818,7 +818,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio19.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio14.sh</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -831,7 +831,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fio19.sh</t>
+          <t>fio14.sh</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio20.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio21.sh</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -856,7 +856,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>fio21.sh</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio18.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio16.sh</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -881,7 +881,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fio18.sh</t>
+          <t>fio16.sh</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio21.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio18.sh</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -906,7 +906,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
+          <t>fio18.sh</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio12.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio20.sh</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -956,7 +956,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>fio20.sh</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio20.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio24.sh</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -981,7 +981,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>fio24.sh</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio24.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio21.sh</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fio24.sh</t>
+          <t>fio21.sh</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio21.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio12.sh</t>
         </is>
       </c>
       <c r="C25" t="b">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
+          <t>fio12.sh</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run14.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run19.txt</t>
         </is>
       </c>
       <c r="C26" t="b">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>run14.txt</t>
+          <t>run19.txt</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run8.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run7.txt</t>
         </is>
       </c>
       <c r="C27" t="b">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>run8.txt</t>
+          <t>run7.txt</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run10.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run15.txt</t>
         </is>
       </c>
       <c r="C28" t="b">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>run10.txt</t>
+          <t>run15.txt</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run7.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run4.txt</t>
         </is>
       </c>
       <c r="C29" t="b">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>run7.txt</t>
+          <t>run4.txt</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run5.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run16.txt</t>
         </is>
       </c>
       <c r="C30" t="b">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>run5.txt</t>
+          <t>run16.txt</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run20.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run12.txt</t>
         </is>
       </c>
       <c r="C31" t="b">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>run20.txt</t>
+          <t>run12.txt</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run15.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run23.txt</t>
         </is>
       </c>
       <c r="C32" t="b">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>run15.txt</t>
+          <t>run23.txt</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run22.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run6.txt</t>
         </is>
       </c>
       <c r="C33" t="b">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>run22.txt</t>
+          <t>run6.txt</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run19.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run21.txt</t>
         </is>
       </c>
       <c r="C34" t="b">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>run19.txt</t>
+          <t>run21.txt</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run2.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run13.txt</t>
         </is>
       </c>
       <c r="C35" t="b">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>run2.txt</t>
+          <t>run13.txt</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run6.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run22.txt</t>
         </is>
       </c>
       <c r="C36" t="b">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>run6.txt</t>
+          <t>run22.txt</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run21.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run18.txt</t>
         </is>
       </c>
       <c r="C37" t="b">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>run21.txt</t>
+          <t>run18.txt</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run24.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run8.txt</t>
         </is>
       </c>
       <c r="C38" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>run24.txt</t>
+          <t>run8.txt</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run23.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run14.txt</t>
         </is>
       </c>
       <c r="C39" t="b">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>run23.txt</t>
+          <t>run14.txt</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run18.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run9.txt</t>
         </is>
       </c>
       <c r="C40" t="b">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>run18.txt</t>
+          <t>run9.txt</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run11.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run24.txt</t>
         </is>
       </c>
       <c r="C42" t="b">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>run11.txt</t>
+          <t>run24.txt</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run13.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run5.txt</t>
         </is>
       </c>
       <c r="C43" t="b">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>run13.txt</t>
+          <t>run5.txt</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run4.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run11.txt</t>
         </is>
       </c>
       <c r="C44" t="b">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>run4.txt</t>
+          <t>run11.txt</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run16.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run10.txt</t>
         </is>
       </c>
       <c r="C46" t="b">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>run16.txt</t>
+          <t>run10.txt</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run9.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run2.txt</t>
         </is>
       </c>
       <c r="C47" t="b">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>run9.txt</t>
+          <t>run2.txt</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run12.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run20.txt</t>
         </is>
       </c>
       <c r="C48" t="b">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>run12.txt</t>
+          <t>run20.txt</t>
         </is>
       </c>
     </row>
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios4</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios2</t>
         </is>
       </c>
       <c r="C50" t="b">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>device.ios4</t>
+          <t>device.ios2</t>
         </is>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios2</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios4</t>
         </is>
       </c>
       <c r="C51" t="b">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>device.ios2</t>
+          <t>device.ios4</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kall.bkp</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kall</t>
         </is>
       </c>
       <c r="C55" t="b">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>devlist.vm4_4kall.bkp</t>
+          <t>devlist.vm4_4kall</t>
         </is>
       </c>
     </row>
@@ -1818,11 +1818,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall.bkp</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kall.bkp</t>
         </is>
       </c>
       <c r="C56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>devlist.vm3_4kall.bkp</t>
+          <t>devlist.vm4_4kall.bkp</t>
         </is>
       </c>
     </row>
@@ -1843,11 +1843,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kall</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall.bkp</t>
         </is>
       </c>
       <c r="C57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>devlist.vm4_4kall</t>
+          <t>devlist.vm3_4kall.bkp</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-2\KKD geo tagging (3).xlsx</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-2\KKD geo tagging (2).xlsx</t>
         </is>
       </c>
       <c r="C62" t="b">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>KKD geo tagging (3).xlsx</t>
+          <t>KKD geo tagging (2).xlsx</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-2\KKD geo tagging (2).xlsx</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-2\KKD geo tagging (3).xlsx</t>
         </is>
       </c>
       <c r="C63" t="b">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>KKD geo tagging (2).xlsx</t>
+          <t>KKD geo tagging (3).xlsx</t>
         </is>
       </c>
     </row>

--- a/fuzzy_duplicates.xlsx
+++ b/fuzzy_duplicates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS III\BH_RA308DEC2023036332009100056PSANSTUC00GTDF\2395561161.jpg.aux.xml</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio3.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS III\BH_RA314NOV2023035991009100056PSANSTUC00GTDF\238999561.jpg.aux.xml</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -476,24 +476,24 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
+          <t>2395561161.jpg.aux.xml</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fio3.sh</t>
+          <t>238999561.jpg.aux.xml</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS III\BH_RA308DEC2023036332009100056PSANSTUC00GTDF\BAND2.tif</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio4.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS III\BH_RA308DEC2023036332009100056PSANSTUC00GTDF\BAND5.tif</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -501,24 +501,24 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fio4.sh</t>
+          <t>BAND5.tif</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS III\BH_RA308DEC2023036332009100056PSANSTUC00GTDF\BAND2.tif</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio6.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS III\BH_RA308DEC2023036332009100056PSANSTUC00GTDF\BAND4.tif</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -526,24 +526,24 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fio6.sh</t>
+          <t>BAND4.tif</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS III\BH_RA308DEC2023036332009100056PSANSTUC00GTDF\BAND2.tif</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio2.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS III\BH_RA308DEC2023036332009100056PSANSTUC00GTDF\BAND3.tif</t>
         </is>
       </c>
       <c r="C5" t="b">
@@ -551,24 +551,24 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fio2.sh</t>
+          <t>BAND3.tif</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS III\BH_RA308DEC2023036332009100056PSANSTUC00GTDF\RA308DEC2023036332009100056PSANSTUC00GTDF.jpg.aux.xml</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio5.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\BH_RAF21OCT2023035650009100056SSANSTUC00GTDC\RAF21OCT2023035650009100056SSANSTUC00GTDC.jpg.aux.xml</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -576,24 +576,24 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
+          <t>RA308DEC2023036332009100056PSANSTUC00GTDF.jpg.aux.xml</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fio5.sh</t>
+          <t>RAF21OCT2023035650009100056SSANSTUC00GTDC.jpg.aux.xml</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS III\BH_RA314NOV2023035991009100056PSANSTUC00GTDF\BAND2.tif</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio7.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS III\BH_RA314NOV2023035991009100056PSANSTUC00GTDF\BAND4.tif</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -601,24 +601,24 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fio7.sh</t>
+          <t>BAND4.tif</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS III\BH_RA314NOV2023035991009100056PSANSTUC00GTDF\BAND2.tif</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio8.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS III\BH_RA314NOV2023035991009100056PSANSTUC00GTDF\BAND5.tif</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -626,24 +626,24 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fio8.sh</t>
+          <t>BAND5.tif</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio1.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS III\BH_RA314NOV2023035991009100056PSANSTUC00GTDF\BAND2.tif</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio9.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS III\BH_RA314NOV2023035991009100056PSANSTUC00GTDF\BAND3.tif</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -651,24 +651,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>fio1.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fio9.sh</t>
+          <t>BAND3.tif</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS III\satellite_images\LISS-3\1989721471-L3-090-052-17Jan19.img</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio19.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS III\satellite_images\LISS-3\1989721481-L3-090-053-17Jan19.img</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -676,24 +676,24 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>1989721471-L3-090-052-17Jan19.img</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fio19.sh</t>
+          <t>1989721481-L3-090-053-17Jan19.img</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS III\satellite_images\LISS-3\1989880301-L3-094-052-18May18.img</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio12.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS III\satellite_images\LISS-3\1989880311-L3-094-053-18May18.img</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -701,24 +701,24 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>1989880301-L3-094-052-18May18.img</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>1989880311-L3-094-053-18May18.img</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS III\satellite_images\LISS-3\23496092511-IRS-R2-L3-092-052-15Apr21_RAW_MS.img</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio15.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS III\satellite_images\LISS-3\23496092521-IRS-R2-L3-092-053-15Apr21_RAW_MS.img</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -726,24 +726,24 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>23496092511-IRS-R2-L3-092-052-15Apr21_RAW_MS.img</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fio15.sh</t>
+          <t>23496092521-IRS-R2-L3-092-053-15Apr21_RAW_MS.img</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\BH_RAF21OCT2023035650009100056SSANSTUC00GTDC\BAND2.tif</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio20.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\BH_RAF21OCT2023035650009100056SSANSTUC00GTDC\BAND3.tif</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -751,24 +751,24 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>BAND3.tif</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\BH_RAF21OCT2023035650009100056SSANSTUC00GTDC\BAND2.tif</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio11.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\BH_RAF21OCT2023035650009100056SSANSTUC00GTDC\BAND4.tif</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -776,24 +776,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fio11.sh</t>
+          <t>BAND4.tif</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\BH_RAF21OCT2023035650009100056SSANSTUC00GTDC\RAF21OCT2023035650009100056SSANSTUC00GTDC.meta</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio17.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\RAF27DEC2023036602009000056SSANSTUC00GTDD\BH_RAF27DEC2023036602009000056SSANSTUC00GTDD\RAF27DEC2023036602009000056SSANSTUC00GTDD.meta</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -801,24 +801,24 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>RAF21OCT2023035650009100056SSANSTUC00GTDC.meta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fio17.sh</t>
+          <t>RAF27DEC2023036602009000056SSANSTUC00GTDD.meta</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\R2F26NOV2023065402009100057SSANSTUC00GTDA\BH_R2F26NOV2023065402009100057SSANSTUC00GTDA\BAND2.tif</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio14.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\R2F26NOV2023065402009100057SSANSTUC00GTDA\BH_R2F26NOV2023065402009100057SSANSTUC00GTDA\BAND3.tif</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -826,24 +826,24 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fio14.sh</t>
+          <t>BAND3.tif</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\R2F26NOV2023065402009100057SSANSTUC00GTDA\BH_R2F26NOV2023065402009100057SSANSTUC00GTDA\BAND2.tif</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio21.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\R2F26NOV2023065402009100057SSANSTUC00GTDA\BH_R2F26NOV2023065402009100057SSANSTUC00GTDA\BAND4.tif</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -851,24 +851,24 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
+          <t>BAND4.tif</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\R2F26NOV2023065402009100057SSANSTUC00GTDA\BH_R2F26NOV2023065402009100057SSANSTUC00GTDA\BAND2.tif.aux.xml</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio16.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\RAF27DEC2023036602009000056SSANSTUC00GTDD\BH_RAF27DEC2023036602009000056SSANSTUC00GTDD\BAND4.tif.aux.xml</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -876,24 +876,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>BAND2.tif.aux.xml</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fio16.sh</t>
+          <t>BAND4.tif.aux.xml</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\R2F26NOV2023065402009100057SSANSTUC00GTDA\BH_R2F26NOV2023065402009100057SSANSTUC00GTDA\BAND2.tif.aux.xml</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio18.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\R2F26NOV2023065402009100057SSANSTUC00GTDA\BH_R2F26NOV2023065402009100057SSANSTUC00GTDA\BAND4.tif.aux.xml</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -901,24 +901,24 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>BAND2.tif.aux.xml</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fio18.sh</t>
+          <t>BAND4.tif.aux.xml</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio10.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\R2F26NOV2023065402009100057SSANSTUC00GTDA\BH_R2F26NOV2023065402009100057SSANSTUC00GTDA\BAND2.tif.aux.xml</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio13.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\RAF27DEC2023036602009000056SSANSTUC00GTDD\BH_RAF27DEC2023036602009000056SSANSTUC00GTDD\BAND3.tif.aux.xml</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -926,24 +926,24 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>fio10.sh</t>
+          <t>BAND2.tif.aux.xml</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fio13.sh</t>
+          <t>BAND3.tif.aux.xml</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\RAF21OCT2023035650009100057SSANSTUC00GTDA\BH_RAF21OCT2023035650009100057SSANSTUC00GTDA\BAND2.tif</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio20.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\RAF21OCT2023035650009100057SSANSTUC00GTDA\BH_RAF21OCT2023035650009100057SSANSTUC00GTDA\BAND3.tif</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -951,24 +951,24 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>fio22.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fio20.sh</t>
+          <t>BAND3.tif</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\RAF21OCT2023035650009100057SSANSTUC00GTDA\BH_RAF21OCT2023035650009100057SSANSTUC00GTDA\BAND2.tif</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio24.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\RAF21OCT2023035650009100057SSANSTUC00GTDA\BH_RAF21OCT2023035650009100057SSANSTUC00GTDA\BAND4.tif</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -976,24 +976,24 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>fio22.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fio24.sh</t>
+          <t>BAND4.tif</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\RAF21OCT2023035650009100057SSANSTUC00GTDA\BH_RAF21OCT2023035650009100057SSANSTUC00GTDA\RAF21OCT2023035650009100057SSANSTUC00GTDA.jpg.aux.xml</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio21.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\RAF27DEC2023036602009000056SSANSTUC00GTDD\BH_RAF27DEC2023036602009000056SSANSTUC00GTDD\RAF27DEC2023036602009000056SSANSTUC00GTDD.jpg.aux.xml</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -1001,24 +1001,24 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>fio22.sh</t>
+          <t>RAF21OCT2023035650009100057SSANSTUC00GTDA.jpg.aux.xml</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fio21.sh</t>
+          <t>RAF27DEC2023036602009000056SSANSTUC00GTDD.jpg.aux.xml</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\RAF27DEC2023036602009000056SSANSTUC00GTDD\BH_RAF27DEC2023036602009000056SSANSTUC00GTDD\BAND2.tif</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio23.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\RAF27DEC2023036602009000056SSANSTUC00GTDD\BH_RAF27DEC2023036602009000056SSANSTUC00GTDD\BAND4.tif</t>
         </is>
       </c>
       <c r="C24" t="b">
@@ -1026,24 +1026,24 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>fio22.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fio23.sh</t>
+          <t>BAND4.tif</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio22.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\RAF27DEC2023036602009000056SSANSTUC00GTDD\BH_RAF27DEC2023036602009000056SSANSTUC00GTDD\BAND2.tif</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\fio12.sh</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Group-3\Group-3\Topic - 2\LISS IV\RAF27DEC2023036602009000056SSANSTUC00GTDD\BH_RAF27DEC2023036602009000056SSANSTUC00GTDD\BAND3.tif</t>
         </is>
       </c>
       <c r="C25" t="b">
@@ -1051,24 +1051,24 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>fio22.sh</t>
+          <t>BAND2.tif</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fio12.sh</t>
+          <t>BAND3.tif</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Topic-1\Geospatial Data Mangement\Geospatial Data Mangement\India_State_Boundary.cpg</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run19.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Topic-1\Geospatial Data Mangement\Geospatial Data Mangement\India_State_Boundary_duplicate.cpg</t>
         </is>
       </c>
       <c r="C26" t="b">
@@ -1076,1012 +1076,137 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>India_State_Boundary.cpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>run19.txt</t>
+          <t>India_State_Boundary_duplicate.cpg</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Topic-1\Geospatial Data Mangement\Geospatial Data Mangement\India_State_Boundary.dbf</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run7.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Topic-1\Geospatial Data Mangement\Geospatial Data Mangement\India_State_Boundary_duplicate.dbf</t>
         </is>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>India_State_Boundary.dbf</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>run7.txt</t>
+          <t>India_State_Boundary_duplicate.dbf</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Topic-1\Geospatial Data Mangement\Geospatial Data Mangement\India_State_Boundary.shp</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run15.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Topic-1\Geospatial Data Mangement\Geospatial Data Mangement\India_State_Boundary_duplicate.shp</t>
         </is>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>India_State_Boundary.shp</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>run15.txt</t>
+          <t>India_State_Boundary_duplicate.shp</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Topic-1\Geospatial Data Mangement\Geospatial Data Mangement\India_State_Boundary.shx</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run4.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Topic-1\Geospatial Data Mangement\Geospatial Data Mangement\India_State_Boundary_duplicate.shx</t>
         </is>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>India_State_Boundary.shx</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>run4.txt</t>
+          <t>India_State_Boundary_duplicate.shx</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Topic-1\Geospatial Data Mangement\Geospatial Data Mangement\lulc_sample.img.aux.xml</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run16.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Topic-1\Geospatial Data Mangement\Geospatial Data Mangement\lulc_sample1.img.aux.xml</t>
         </is>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>lulc_sample.img.aux.xml</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>run16.txt</t>
+          <t>lulc_sample1.img.aux.xml</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Topic-1\Geospatial Data Mangement\Geospatial Data Mangement\lulc_sample.img.aux.xml</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run12.txt</t>
+          <t>D:\adhvik\adh\Hackathon\space hack\finals data\Topic-1\Geospatial Data Mangement\Geospatial Data Mangement Copy\lulc_sample1.img.aux.xml</t>
         </is>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>run1.txt</t>
+          <t>lulc_sample.img.aux.xml</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>run12.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run23.txt</t>
-        </is>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>run23.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run6.txt</t>
-        </is>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>run6.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run21.txt</t>
-        </is>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>run21.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run13.txt</t>
-        </is>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>run13.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run22.txt</t>
-        </is>
-      </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>run22.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run18.txt</t>
-        </is>
-      </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>run18.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run8.txt</t>
-        </is>
-      </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>run8.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run14.txt</t>
-        </is>
-      </c>
-      <c r="C39" t="b">
-        <v>1</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>run14.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run9.txt</t>
-        </is>
-      </c>
-      <c r="C40" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>run9.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run17.txt</t>
-        </is>
-      </c>
-      <c r="C41" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>run17.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run24.txt</t>
-        </is>
-      </c>
-      <c r="C42" t="b">
-        <v>1</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>run24.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run5.txt</t>
-        </is>
-      </c>
-      <c r="C43" t="b">
-        <v>1</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>run5.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run11.txt</t>
-        </is>
-      </c>
-      <c r="C44" t="b">
-        <v>1</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>run11.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run3.txt</t>
-        </is>
-      </c>
-      <c r="C45" t="b">
-        <v>1</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>run3.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run10.txt</t>
-        </is>
-      </c>
-      <c r="C46" t="b">
-        <v>1</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>run10.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run2.txt</t>
-        </is>
-      </c>
-      <c r="C47" t="b">
-        <v>1</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>run2.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run1.txt</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\fio-bm\run20.txt</t>
-        </is>
-      </c>
-      <c r="C48" t="b">
-        <v>1</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>run1.txt</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>run20.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios1</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios3</t>
-        </is>
-      </c>
-      <c r="C49" t="b">
-        <v>0</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>device.ios1</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>device.ios3</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios1</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios2</t>
-        </is>
-      </c>
-      <c r="C50" t="b">
-        <v>0</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>device.ios1</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>device.ios2</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios1</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\device.ios4</t>
-        </is>
-      </c>
-      <c r="C51" t="b">
-        <v>0</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>device.ios1</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>device.ios4</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\xdd-7k-BS4-QD8-TG1-512_flash-log01</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\xdd-7k-BS512K-QD16-TG1-512_flash-log09-k</t>
-        </is>
-      </c>
-      <c r="C52" t="b">
-        <v>0</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>xdd-7k-BS4-QD8-TG1-512_flash-log01</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>xdd-7k-BS512K-QD16-TG1-512_flash-log09-k</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\ihara\devlist.c0-vm1</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\ihara\devlist.c1-vm1</t>
-        </is>
-      </c>
-      <c r="C53" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>devlist.c0-vm1</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>devlist.c1-vm1</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm1</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3</t>
-        </is>
-      </c>
-      <c r="C54" t="b">
-        <v>0</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>devlist.vm1</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>devlist.vm3</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kall</t>
-        </is>
-      </c>
-      <c r="C55" t="b">
-        <v>0</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>devlist.vm3_4kall</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>devlist.vm4_4kall</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kall.bkp</t>
-        </is>
-      </c>
-      <c r="C56" t="b">
-        <v>0</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>devlist.vm3_4kall</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>devlist.vm4_4kall.bkp</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kall.bkp</t>
-        </is>
-      </c>
-      <c r="C57" t="b">
-        <v>1</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>devlist.vm3_4kall</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>devlist.vm3_4kall.bkp</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm3_4kallnew</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\devlist.vm4_4kallnew</t>
-        </is>
-      </c>
-      <c r="C58" t="b">
-        <v>0</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>devlist.vm3_4kallnew</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>devlist.vm4_4kallnew</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\xdd-7ke-BS4-QD16-TG0-512.log</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\.tar\opt\ddn\others\RAW_BM\XDD\xdd-7ke-BS8-QD16-TG0-512.log</t>
-        </is>
-      </c>
-      <c r="C59" t="b">
-        <v>0</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>xdd-7ke-BS4-QD16-TG0-512.log</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>xdd-7ke-BS8-QD16-TG0-512.log</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-1\3.207-CVE_to_be_installed.txt</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-2\3.208-CVE_to_be_installed.txt</t>
-        </is>
-      </c>
-      <c r="C60" t="b">
-        <v>1</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>3.207-CVE_to_be_installed.txt</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>3.208-CVE_to_be_installed.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-1\KKD geo tagging (1).xlsx</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-2\KKD geo tagging.xlsx</t>
-        </is>
-      </c>
-      <c r="C61" t="b">
-        <v>1</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>KKD geo tagging (1).xlsx</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>KKD geo tagging.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-1\KKD geo tagging (1).xlsx</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-2\KKD geo tagging (2).xlsx</t>
-        </is>
-      </c>
-      <c r="C62" t="b">
-        <v>1</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>KKD geo tagging (1).xlsx</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>KKD geo tagging (2).xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-1\KKD geo tagging (1).xlsx</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-2\KKD geo tagging (3).xlsx</t>
-        </is>
-      </c>
-      <c r="C63" t="b">
-        <v>1</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>KKD geo tagging (1).xlsx</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>KKD geo tagging (3).xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-1\LS____.pdf</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-2\LS____ (2).pdf</t>
-        </is>
-      </c>
-      <c r="C64" t="b">
-        <v>0</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>LS____.pdf</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>LS____ (2).pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-1\LS____.pdf</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-2\LS____ (1).pdf</t>
-        </is>
-      </c>
-      <c r="C65" t="b">
-        <v>0</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>LS____.pdf</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>LS____ (1).pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-2\235434221_RAW_PAN.pix</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>D:\adhvik\adh\Hackathon\space hack\Data RR\data Set\topic12\dataset1\folder-2\235434241_RAW_PAN.pix</t>
-        </is>
-      </c>
-      <c r="C66" t="b">
-        <v>0</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>235434221_RAW_PAN.pix</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>235434241_RAW_PAN.pix</t>
+          <t>lulc_sample1.img.aux.xml</t>
         </is>
       </c>
     </row>
